--- a/xcloud/src/main/webapp/WEB-INF/attach/批量导入员工模板文件.xlsx
+++ b/xcloud/src/main/webapp/WEB-INF/attach/批量导入员工模板文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -62,29 +62,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>身份证号</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>手机号</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -151,13 +128,27 @@
     <t>工号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -266,7 +257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -276,8 +267,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,8 +289,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -307,6 +303,7 @@
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,17 +645,17 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="6"/>
@@ -669,25 +666,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -705,19 +702,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations xWindow="294" yWindow="267" count="6">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="咦，是不是搞错了？表太粗心噢，亲：）" error="温馨提示：手机号仅限11位，不会多写或少写一个数字吧？再检查检查！" promptTitle="【云行政】提示：" prompt="手机号为必填项。此处最常见错误：_x000d_①多写或少写，不是11位_x000d_②必须都是数字_x000d_这会关系到后期业务通知，请正确填写。_x000d_" sqref="B1:B1048576">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="温馨提示：手机号仅限11位" promptTitle="【云行政】提示：" prompt="手机号为必填项。此处最常见错误：_x000d_①多写或少写，不是11位_x000d_②必须都是数字_x000d_这会关系到后期业务通知，请正确填写。_x000d_" sqref="B1:B1048576">
       <formula1>11</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="咦，是不是搞错了？表太粗心噢，亲：）" error="【51社保】温馨提示：身份证号仅限18位，不会多写或少写一个数字吧？再检查检查！" promptTitle="【云行政】提示：" prompt="身份证号为必填项。此处最常见2种错误：_x000d_①多写或少写，不是18位_x000d_②EXCEL当成数字自动缩位，身份证号最后三位成了000" sqref="C1:C1048576">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="信息录入有错" error="【云行政】提示：身份证号仅限18位" promptTitle="【云行政】提示：" prompt="身份证号为必填项。此处最常见2种错误：_x000d_①多写或少写，不是18位_x000d_②EXCEL当成数字自动缩位，身份证号最后三位成了000" sqref="E1:E1048576">
       <formula1>18</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="咦，是不是搞错了？表太粗心噢，亲：）" error="【51社保】温馨提示：EMAIL地址要填写正确噢，不会少写一个@吧？再检查检查！" promptTitle="【51社保】温馨提示：" prompt="常用EMAIL，此处最常见错误：多写少写或错写。这会关系到后期业务通知，你可不要出错噢：）" sqref="H1:H1048576">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="【云行政】提示：EMAIL地址要填写正确" promptTitle="【51社保】温馨提示：" prompt="常用EMAIL，此处最常见错误：多写少写或错写。这会关系到后期业务通知，你可不要出错噢：）" sqref="H1:H1048576">
       <formula1>NOT(ISERR(FIND("@",H1)))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"全职,兼职,实习"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="【云行政】提示" prompt="工号为员工在考勤设备上的唯一编号，特征为：_x000d_①工号为默认 1- 9999的顺序，前置补零_x000d_②如果工号不填或者工号填写不正确，则系统会自动根据规则默认设置" sqref="F1:F1048576"/>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="【云行政】提示：工号范围是 0001 - 9999 之间的数字，不足四位补零" promptTitle="【云行政】提示" prompt="工号为员工在考勤设备上的唯一编号，特征为：_x000d_①工号为0001- 9999之间整数，不足四位自动补零_x000d_②如果工号不填或者工号填写不正确，则系统会自动根据规则默认设置" sqref="F1:F1048576">
+      <formula1>1</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="【云行政】提示：" prompt="姓名为必填项。此处最常见2种错误：_x000d_①与身份证不一致_x000d_②写了同音错别字" sqref="A1:A1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xcloud/src/main/webapp/WEB-INF/attach/批量导入员工模板文件.xlsx
+++ b/xcloud/src/main/webapp/WEB-INF/attach/批量导入员工模板文件.xlsx
@@ -125,21 +125,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>工号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证号</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工号</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,9 +278,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -294,7 +317,7 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -304,6 +327,8 @@
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,19 +668,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="6"/>
@@ -668,16 +693,16 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -705,16 +730,16 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="温馨提示：手机号仅限11位" promptTitle="【云行政】提示：" prompt="手机号为必填项。此处最常见错误：_x000d_①多写或少写，不是11位_x000d_②必须都是数字_x000d_这会关系到后期业务通知，请正确填写。_x000d_" sqref="B1:B1048576">
       <formula1>11</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="信息录入有错" error="【云行政】提示：身份证号仅限18位" promptTitle="【云行政】提示：" prompt="身份证号为必填项。此处最常见2种错误：_x000d_①多写或少写，不是18位_x000d_②EXCEL当成数字自动缩位，身份证号最后三位成了000" sqref="E1:E1048576">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="信息录入有错" error="【云行政】提示：身份证号仅限18位" promptTitle="【云行政】提示：" prompt="身份证号为必填项。此处最常见2种错误：_x000d_①多写或少写，不是18位_x000d_②EXCEL当成数字自动缩位，身份证号最后三位成了000" sqref="F1:F1048576">
       <formula1>18</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="【云行政】提示：EMAIL地址要填写正确" promptTitle="【51社保】温馨提示：" prompt="常用EMAIL，此处最常见错误：多写少写或错写。这会关系到后期业务通知，你可不要出错噢：）" sqref="H1:H1048576">
       <formula1>NOT(ISERR(FIND("@",H1)))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"全职,兼职,实习"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="【云行政】提示：工号范围是 0001 - 9999 之间的数字，不足四位补零" promptTitle="【云行政】提示" prompt="工号为员工在考勤设备上的唯一编号，特征为：_x000d_①工号为0001- 9999之间整数，不足四位自动补零_x000d_②如果工号不填或者工号填写不正确，则系统会自动根据规则默认设置" sqref="F1:F1048576">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入有错" error="【云行政】提示：工号范围是 0001 - 9999 之间的数字，不足四位补零" promptTitle="【云行政】提示" prompt="工号为员工在考勤设备上的唯一编号，特征为：_x000d_①工号为0001- 9999之间整数，不足四位自动补零_x000d_②如果工号不填或者工号填写不正确，则系统会自动根据规则默认设置" sqref="C1:C1048576">
       <formula1>1</formula1>
       <formula2>9999</formula2>
     </dataValidation>

--- a/xcloud/src/main/webapp/WEB-INF/attach/批量导入员工模板文件.xlsx
+++ b/xcloud/src/main/webapp/WEB-INF/attach/批量导入员工模板文件.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -138,17 +138,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -670,7 +659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
